--- a/data/trans_bre/P2A_psíq_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.9595686987405219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.9024088256642409</v>
+        <v>-0.9024088256642402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3890971426188017</v>
@@ -649,7 +649,7 @@
         <v>0.7059800620699388</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1982026032598531</v>
+        <v>-0.1982026032598529</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.136190364014348</v>
+        <v>-3.270866291873869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2100939985755692</v>
+        <v>0.1683383960617139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1189965356149289</v>
+        <v>-0.2273225871547535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.763165645780015</v>
+        <v>-3.738567815036413</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6916470551238055</v>
+        <v>-0.7072811568139765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04108260491791719</v>
+        <v>0.02746685387547413</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0763430511737344</v>
+        <v>-0.1654634233013609</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5376904062835924</v>
+        <v>-0.5564186002315059</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3806512811150345</v>
+        <v>0.2760707153709804</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.468866887865624</v>
+        <v>2.421833502568552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.170034468791719</v>
+        <v>2.099667977678394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.116126805836372</v>
+        <v>1.370175151154581</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2652025565246677</v>
+        <v>0.1770999990907076</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.237693159996605</v>
+        <v>3.471925100478683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.706754138280366</v>
+        <v>2.455889709904344</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3616006058258623</v>
+        <v>0.4784413368983455</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.7909780553732126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.097184878619744</v>
+        <v>1.097184878619745</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04092693948917091</v>
@@ -749,7 +749,7 @@
         <v>1.068619664664704</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4598176851168725</v>
+        <v>0.4598176851168728</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.608819455560925</v>
+        <v>-0.621585214322121</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.37875509783681</v>
+        <v>-1.582483704207811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.1223645047071488</v>
+        <v>-0.1199392157400387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5441722919958542</v>
+        <v>-0.2611220764428136</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7397179269645281</v>
+        <v>-0.7562461470387761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4768209351784577</v>
+        <v>-0.5362902479258027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2317632239949993</v>
+        <v>-0.2133918714026131</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1792307901367581</v>
+        <v>-0.1336562304204721</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6095198760691798</v>
+        <v>0.6859469674751483</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.392743696537464</v>
+        <v>1.245443695985554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.823969099500906</v>
+        <v>1.823235868074127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.506349006004058</v>
+        <v>2.513027293438054</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.433377985938388</v>
+        <v>2.658384111788581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9884571145078909</v>
+        <v>0.8359918373998652</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.8055526416221</v>
+        <v>4.538995983237285</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.4216819543312</v>
+        <v>1.561143739562958</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.08249986685885877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5083945916936065</v>
+        <v>0.5083945916936068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.036883869809374</v>
@@ -849,7 +849,7 @@
         <v>-0.08728152484256295</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2769164471404336</v>
+        <v>0.2769164471404338</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1516480600487074</v>
+        <v>0.1232553545438533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.005419677805362</v>
+        <v>-2.001302874927281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.131157443716449</v>
+        <v>-1.096409502906448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7724547041727727</v>
+        <v>-0.9275153453746768</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.0735218195420114</v>
+        <v>-0.03035507816196972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7134893551050855</v>
+        <v>-0.705675519352453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7759062510043054</v>
+        <v>-0.7468482228194544</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3406580751945008</v>
+        <v>-0.3409229987906274</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.782726624663152</v>
+        <v>1.867656367401705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4370020711822586</v>
+        <v>0.5389331830273247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8739832403904579</v>
+        <v>1.000863935598474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.728747312015655</v>
+        <v>1.765704869762886</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>9.433720365150942</v>
+        <v>10.18977635761531</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4136341823670419</v>
+        <v>0.4942997136723916</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.820817647318405</v>
+        <v>2.794110218628249</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.456612338260267</v>
+        <v>1.431241812936151</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>5.010500216319374</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6840105779803489</v>
+        <v>0.6840105779803487</v>
       </c>
     </row>
     <row r="14">
@@ -960,24 +960,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3459583915814293</v>
+        <v>-0.2302763034049465</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.365584942030927</v>
+        <v>-2.554101207411358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2036593075726522</v>
+        <v>0.2009473393470843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1059997105123129</v>
+        <v>-0.1159535955907529</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.6329528441482645</v>
+        <v>-0.6697836863499399</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.08123122091078125</v>
+        <v>-0.09483044136556218</v>
       </c>
     </row>
     <row r="15">
@@ -988,24 +988,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.835671172024437</v>
+        <v>1.67240785532458</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.477945278126664</v>
+        <v>2.200175714601631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.360674477198077</v>
+        <v>2.276673879641942</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.333690082464142</v>
+        <v>2.349222410769778</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.900116978872946</v>
+        <v>1.639903116670001</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2.231672789084574</v>
+        <v>2.254897920104808</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1029,7 @@
         <v>0.7072807431140823</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6803037167064315</v>
+        <v>0.6803037167064319</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2594569738548589</v>
@@ -1041,7 +1041,7 @@
         <v>0.7712157444330926</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2953299643314766</v>
+        <v>0.2953299643314767</v>
       </c>
     </row>
     <row r="17">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2757044869065625</v>
+        <v>-0.281594022209653</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4430318616692565</v>
+        <v>-0.4179465685222815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1945645283451324</v>
+        <v>0.1547824887133052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.03977523654240446</v>
+        <v>-0.04351157341782699</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2429877062018755</v>
+        <v>-0.2589423033942792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2035801844309166</v>
+        <v>-0.2005187726918604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1230210349546965</v>
+        <v>0.09689563883021492</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01351225311510429</v>
+        <v>-0.01639807832976479</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7447053544737428</v>
+        <v>0.7436852361666785</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9431574346174257</v>
+        <v>0.9450861231043288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.307594728662888</v>
+        <v>1.298722749418898</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.402352799408081</v>
+        <v>1.339793346631232</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.085950054735283</v>
+        <v>1.158105981726058</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6616331286980066</v>
+        <v>0.6487303436975438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.866337064127594</v>
+        <v>1.896818859082587</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7401008163850626</v>
+        <v>0.6819376787340392</v>
       </c>
     </row>
     <row r="19">
